--- a/attached_assets/CR 3_1762338481711.xlsx
+++ b/attached_assets/CR 3_1762338481711.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtnenggdiv-my.sharepoint.com/personal/gtnit_gtnengg_net/Documents/Narain_IT/Desktop/Contract Review/attached_assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{5E345B51-7323-4254-9579-0426CDBBAEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51FE14CE-4337-46BD-97DD-78C5ECAFC1CB}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{5E345B51-7323-4254-9579-0426CDBBAEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA898A58-B369-4C62-97C7-BC59684610AA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="12540" xr2:uid="{474B8A35-20C8-41D2-99BD-3DAFBE317129}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{474B8A35-20C8-41D2-99BD-3DAFBE317129}"/>
   </bookViews>
   <sheets>
     <sheet name="CR 3" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="FMCCustomer">[1]Sheet12!$A$1:$A$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'CR 3'!$A$1:$AC$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CR 3'!$A$1:$AC$41</definedName>
     <definedName name="zone" localSheetId="0">#REF!</definedName>
     <definedName name="zone">#REF!</definedName>
   </definedNames>
@@ -405,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -830,37 +830,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -886,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,29 +894,143 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -956,15 +1039,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1003,6 +1077,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,137 +1101,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1157,15 +1123,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1173,18 +1130,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1659,10 +1604,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC95"/>
+  <dimension ref="A1:AC94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:O39"/>
+      <selection activeCell="W49" sqref="W49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1686,305 +1631,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="e" vm="1">
+      <c r="A1" s="31" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="56" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="59" t="s">
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="61"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="42"/>
     </row>
     <row r="2" spans="1:29" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="56" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="62" t="s">
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="64"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="45"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="66"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="83" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="70"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="51"/>
       <c r="V3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="W3" s="5"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="69"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="50"/>
     </row>
     <row r="4" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="80" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="81"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="59"/>
     </row>
     <row r="5" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="85"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="82" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="47" t="s">
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="30"/>
       <c r="Y5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="81"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="59"/>
     </row>
     <row r="6" spans="1:29" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="85"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="45" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="45" t="s">
+      <c r="O6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="P6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="45" t="s">
+      <c r="S6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="45" t="s">
+      <c r="T6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="45" t="s">
+      <c r="U6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="45" t="s">
+      <c r="V6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="45" t="s">
+      <c r="W6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="X6" s="45" t="s">
+      <c r="X6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="45" t="s">
+      <c r="Y6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="81"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="59"/>
     </row>
     <row r="7" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="81"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="59"/>
     </row>
     <row r="8" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -2012,10 +1957,10 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="11"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="24"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="62"/>
     </row>
     <row r="9" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -2043,10 +1988,10 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="11"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="26"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="84"/>
     </row>
     <row r="10" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -2074,10 +2019,10 @@
       <c r="W10" s="9"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="11"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="26"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="84"/>
     </row>
     <row r="11" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -2105,10 +2050,10 @@
       <c r="W11" s="9"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="26"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="84"/>
     </row>
     <row r="12" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -2136,10 +2081,10 @@
       <c r="W12" s="9"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="11"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="24"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="62"/>
     </row>
     <row r="13" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -2167,10 +2112,10 @@
       <c r="W13" s="9"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="11"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="24"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="62"/>
     </row>
     <row r="14" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -2198,10 +2143,10 @@
       <c r="W14" s="9"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="11"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="24"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="62"/>
     </row>
     <row r="15" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -2229,10 +2174,10 @@
       <c r="W15" s="9"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="11"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="24"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="62"/>
     </row>
     <row r="16" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -2260,10 +2205,10 @@
       <c r="W16" s="9"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="24"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="62"/>
     </row>
     <row r="17" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -2291,10 +2236,10 @@
       <c r="W17" s="9"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="24"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="62"/>
     </row>
     <row r="18" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -2322,10 +2267,10 @@
       <c r="W18" s="9"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="11"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="24"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="62"/>
     </row>
     <row r="19" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -2353,10 +2298,10 @@
       <c r="W19" s="9"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="11"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="24"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="62"/>
     </row>
     <row r="20" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -2384,10 +2329,10 @@
       <c r="W20" s="9"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="11"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="24"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="62"/>
     </row>
     <row r="21" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -2415,10 +2360,10 @@
       <c r="W21" s="9"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="11"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="24"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="62"/>
     </row>
     <row r="22" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -2446,10 +2391,10 @@
       <c r="W22" s="9"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="11"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="24"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="62"/>
     </row>
     <row r="23" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -2477,10 +2422,10 @@
       <c r="W23" s="9"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="11"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="24"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="62"/>
     </row>
     <row r="24" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -2508,10 +2453,10 @@
       <c r="W24" s="9"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="11"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="24"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="62"/>
     </row>
     <row r="25" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -2539,10 +2484,10 @@
       <c r="W25" s="9"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="11"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="24"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="62"/>
     </row>
     <row r="26" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -2570,10 +2515,10 @@
       <c r="W26" s="9"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="11"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="24"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="62"/>
     </row>
     <row r="27" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -2601,10 +2546,10 @@
       <c r="W27" s="9"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="11"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="24"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="62"/>
     </row>
     <row r="28" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -2632,10 +2577,10 @@
       <c r="W28" s="9"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="11"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="24"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="62"/>
     </row>
     <row r="29" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -2663,10 +2608,10 @@
       <c r="W29" s="9"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="11"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="24"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="62"/>
     </row>
     <row r="30" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -2694,10 +2639,10 @@
       <c r="W30" s="9"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="11"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="24"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="62"/>
     </row>
     <row r="31" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -2725,10 +2670,10 @@
       <c r="W31" s="9"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="11"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="24"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="62"/>
     </row>
     <row r="32" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -2756,10 +2701,10 @@
       <c r="W32" s="9"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="11"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="24"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="62"/>
     </row>
     <row r="33" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
@@ -2787,10 +2732,10 @@
       <c r="W33" s="9"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="11"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="24"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="61"/>
+      <c r="AC33" s="62"/>
     </row>
     <row r="34" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -2818,10 +2763,10 @@
       <c r="W34" s="9"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="11"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="24"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="62"/>
     </row>
     <row r="35" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -2849,10 +2794,10 @@
       <c r="W35" s="9"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="11"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="24"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="62"/>
     </row>
     <row r="36" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -2880,10 +2825,10 @@
       <c r="W36" s="9"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="11"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="24"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="62"/>
     </row>
     <row r="37" spans="1:29" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -2911,219 +2856,225 @@
       <c r="W37" s="9"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="11"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="26"/>
-    </row>
-    <row r="38" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="89" t="s">
+      <c r="Z37" s="85"/>
+      <c r="AA37" s="83"/>
+      <c r="AB37" s="83"/>
+      <c r="AC37" s="84"/>
+    </row>
+    <row r="38" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="94" t="s">
+      <c r="B38" s="89"/>
+      <c r="C38" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="95"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="98"/>
-      <c r="O38" s="99"/>
-      <c r="P38" s="97"/>
-      <c r="Q38" s="98"/>
-      <c r="R38" s="98"/>
-      <c r="S38" s="98"/>
-      <c r="T38" s="99"/>
-      <c r="U38" s="97"/>
-      <c r="V38" s="98"/>
-      <c r="W38" s="98"/>
-      <c r="X38" s="99"/>
-      <c r="Y38" s="87"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="16"/>
-    </row>
-    <row r="39" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="100"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="98"/>
-      <c r="O39" s="99"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="98"/>
-      <c r="R39" s="98"/>
-      <c r="S39" s="98"/>
-      <c r="T39" s="99"/>
-      <c r="U39" s="97"/>
-      <c r="V39" s="98"/>
-      <c r="W39" s="98"/>
-      <c r="X39" s="99"/>
-      <c r="Y39" s="88"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="19"/>
-    </row>
-    <row r="40" spans="1:29" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="35" t="s">
+      <c r="D38" s="91"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="75"/>
+      <c r="AA38" s="76"/>
+      <c r="AB38" s="76"/>
+      <c r="AC38" s="77"/>
+    </row>
+    <row r="39" spans="1:29" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="86"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="38" t="s">
+      <c r="D39" s="71"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="39" t="s">
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39" t="s">
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="74"/>
+      <c r="U39" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="7" t="s">
+      <c r="V39" s="74"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="74"/>
+      <c r="Y39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="16"/>
-    </row>
-    <row r="41" spans="1:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="40" t="s">
+      <c r="Z39" s="75"/>
+      <c r="AA39" s="76"/>
+      <c r="AB39" s="76"/>
+      <c r="AC39" s="77"/>
+    </row>
+    <row r="40" spans="1:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="43"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="44"/>
-    </row>
-    <row r="42" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28" t="s">
+      <c r="B40" s="79"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
+      <c r="T40" s="81"/>
+      <c r="U40" s="81"/>
+      <c r="V40" s="81"/>
+      <c r="W40" s="81"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="81"/>
+      <c r="Z40" s="81"/>
+      <c r="AA40" s="81"/>
+      <c r="AB40" s="81"/>
+      <c r="AC40" s="82"/>
+    </row>
+    <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="30"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="64"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="64"/>
+      <c r="AA41" s="64"/>
+      <c r="AB41" s="64"/>
+      <c r="AC41" s="65"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="66"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="68"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="31"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="33"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="34"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="89">
+    <mergeCell ref="Z38:AC38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="Z35:AC35"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:O38"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="Z31:AC31"/>
+    <mergeCell ref="Z32:AC32"/>
+    <mergeCell ref="Z33:AC33"/>
+    <mergeCell ref="Z24:AC24"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="Z27:AC27"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="Z15:AC15"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="Z20:AC20"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="Z22:AC22"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="A41:AC41"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="F39:O39"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="P39:T39"/>
     <mergeCell ref="U39:X39"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="F5:O5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="Z39:AC39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:AC40"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:U1"/>
@@ -3140,65 +3091,23 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:Y4"/>
     <mergeCell ref="Z4:AC7"/>
+    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="A42:AC42"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:O40"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="Z40:AC40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:AC41"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="Z15:AC15"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="Z19:AC19"/>
-    <mergeCell ref="Z20:AC20"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="Z22:AC22"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="Z24:AC24"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="Z26:AC26"/>
-    <mergeCell ref="Z27:AC27"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="Z31:AC31"/>
-    <mergeCell ref="Z32:AC32"/>
-    <mergeCell ref="Z33:AC33"/>
-    <mergeCell ref="Z38:AC39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="Z35:AC35"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:O38"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="U38:X38"/>
   </mergeCells>
   <conditionalFormatting sqref="A3 C3:E3 L3 O3 V3 X3:Y3">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="N/A">
